--- a/Tables/aq_hmf_events_stats_30_95.xlsx
+++ b/Tables/aq_hmf_events_stats_30_95.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,22 +526,22 @@
         <v>90</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>997</v>
+        <v>184</v>
       </c>
       <c r="H2" t="n">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
-        <v>5.056366428676894</v>
+        <v>15.77982589025398</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="K2" t="n">
         <v>21</v>
@@ -569,31 +569,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>725</v>
+        <v>870</v>
       </c>
       <c r="C3" t="n">
-        <v>45.18548693197333</v>
+        <v>56.21038266667063</v>
       </c>
       <c r="D3" t="n">
         <v>55</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>538</v>
+        <v>170</v>
       </c>
       <c r="H3" t="n">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>6.742190930047406</v>
+        <v>22.44702970795982</v>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K3" t="n">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>55</v>
       </c>
       <c r="M3" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>23.73070630528765</v>
+        <v>24.70497060972139</v>
       </c>
       <c r="P3" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -630,22 +630,22 @@
         <v>122</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H4" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1604953558333458</v>
+        <v>3.637898809848378</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
         <v>21</v>
@@ -673,31 +673,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>629</v>
+        <v>365</v>
       </c>
       <c r="C5" t="n">
-        <v>23.54922667099421</v>
+        <v>20.74057017678842</v>
       </c>
       <c r="D5" t="n">
         <v>324</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>446</v>
+        <v>57</v>
       </c>
       <c r="H5" t="n">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I5" t="n">
-        <v>1.130481822924478</v>
+        <v>1.277156473497113</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
         <v>21</v>
@@ -706,16 +706,16 @@
         <v>324</v>
       </c>
       <c r="M5" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>19.77888249395013</v>
+        <v>18.62561081981243</v>
       </c>
       <c r="P5" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -734,22 +734,22 @@
         <v>125</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="H6" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I6" t="n">
-        <v>3.372264316490913</v>
+        <v>37.12161307677503</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="K6" t="n">
         <v>21</v>
@@ -777,49 +777,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="C7" t="n">
-        <v>13.64430716382586</v>
+        <v>17.71672953424908</v>
       </c>
       <c r="D7" t="n">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="H7" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="I7" t="n">
-        <v>0.334202219616384</v>
+        <v>3.827003196831678</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="K7" t="n">
         <v>21</v>
       </c>
       <c r="L7" t="n">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="M7" t="n">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="N7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O7" t="n">
-        <v>11.93561880233184</v>
+        <v>13.97422922185287</v>
       </c>
       <c r="P7" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -838,22 +838,22 @@
         <v>106</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>1141</v>
+        <v>472</v>
       </c>
       <c r="H8" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="I8" t="n">
-        <v>21.63023923855983</v>
+        <v>170.5243106042679</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="K8" t="n">
         <v>21</v>
@@ -890,22 +890,22 @@
         <v>122</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>1129</v>
+        <v>190</v>
       </c>
       <c r="H9" t="n">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="I9" t="n">
-        <v>25.50653395990793</v>
+        <v>54.13209674316009</v>
       </c>
       <c r="J9" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="K9" t="n">
         <v>21</v>
@@ -933,31 +933,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C10" t="n">
-        <v>92.43328061538659</v>
+        <v>92.42912862989009</v>
       </c>
       <c r="D10" t="n">
         <v>41</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>483</v>
+        <v>67</v>
       </c>
       <c r="H10" t="n">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="I10" t="n">
-        <v>21.81174918592429</v>
+        <v>42.65279070321792</v>
       </c>
       <c r="J10" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="K10" t="n">
         <v>21</v>
@@ -966,13 +966,13 @@
         <v>41</v>
       </c>
       <c r="M10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>21.5921233530838</v>
+        <v>21.58942668858522</v>
       </c>
       <c r="P10" t="n">
         <v>23</v>
@@ -985,49 +985,465 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2326</v>
+        <v>2186</v>
       </c>
       <c r="C11" t="n">
-        <v>216.7189512312521</v>
+        <v>225.9154892547622</v>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>1750</v>
+        <v>375</v>
       </c>
       <c r="H11" t="n">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="I11" t="n">
-        <v>63.56744451642352</v>
+        <v>91.50916729299288</v>
       </c>
       <c r="J11" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K11" t="n">
         <v>21</v>
       </c>
       <c r="L11" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M11" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>25.38906860779552</v>
+        <v>30.7122053525272</v>
       </c>
       <c r="P11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Northern High Plains</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>479</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23.19466160310652</v>
+      </c>
+      <c r="D12" t="n">
+        <v>73</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>21</v>
+      </c>
+      <c r="G12" t="n">
+        <v>71</v>
+      </c>
+      <c r="H12" t="n">
+        <v>15</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.916434482372116</v>
+      </c>
+      <c r="J12" t="n">
+        <v>38</v>
+      </c>
+      <c r="K12" t="n">
+        <v>21</v>
+      </c>
+      <c r="L12" t="n">
+        <v>73</v>
+      </c>
+      <c r="M12" t="n">
+        <v>15</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8.59408592127726</v>
+      </c>
+      <c r="P12" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Central South High Plains</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>850</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10.34786589337625</v>
+      </c>
+      <c r="D13" t="n">
+        <v>90</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>21</v>
+      </c>
+      <c r="G13" t="n">
+        <v>113</v>
+      </c>
+      <c r="H13" t="n">
+        <v>13</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6.863391407881861</v>
+      </c>
+      <c r="J13" t="n">
+        <v>66</v>
+      </c>
+      <c r="K13" t="n">
+        <v>21</v>
+      </c>
+      <c r="L13" t="n">
+        <v>90</v>
+      </c>
+      <c r="M13" t="n">
+        <v>15</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.967325832282398</v>
+      </c>
+      <c r="P13" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Sacramento River Basin</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>39</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11.26966093864531</v>
+      </c>
+      <c r="D14" t="n">
+        <v>45</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>21</v>
+      </c>
+      <c r="G14" t="n">
+        <v>15</v>
+      </c>
+      <c r="H14" t="n">
+        <v>38</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.519154265711616</v>
+      </c>
+      <c r="J14" t="n">
+        <v>31</v>
+      </c>
+      <c r="K14" t="n">
+        <v>21</v>
+      </c>
+      <c r="L14" t="n">
+        <v>45</v>
+      </c>
+      <c r="M14" t="n">
+        <v>11</v>
+      </c>
+      <c r="N14" t="n">
+        <v>28</v>
+      </c>
+      <c r="O14" t="n">
+        <v>8.233460685761472</v>
+      </c>
+      <c r="P14" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>San Joaquin River Basin</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10.20633027473853</v>
+      </c>
+      <c r="D15" t="n">
+        <v>122</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>21</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>16</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1187445441367612</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>21</v>
+      </c>
+      <c r="L15" t="n">
+        <v>122</v>
+      </c>
+      <c r="M15" t="n">
+        <v>8</v>
+      </c>
+      <c r="N15" t="n">
+        <v>42</v>
+      </c>
+      <c r="O15" t="n">
+        <v>10.06285085182928</v>
+      </c>
+      <c r="P15" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>946</v>
+      </c>
+      <c r="C16" t="n">
+        <v>117.9832285445817</v>
+      </c>
+      <c r="D16" t="n">
+        <v>106</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>21</v>
+      </c>
+      <c r="G16" t="n">
+        <v>206</v>
+      </c>
+      <c r="H16" t="n">
+        <v>22</v>
+      </c>
+      <c r="I16" t="n">
+        <v>57.90712929292349</v>
+      </c>
+      <c r="J16" t="n">
+        <v>49</v>
+      </c>
+      <c r="K16" t="n">
+        <v>21</v>
+      </c>
+      <c r="L16" t="n">
+        <v>106</v>
+      </c>
+      <c r="M16" t="n">
+        <v>42</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>40.0960935683539</v>
+      </c>
+      <c r="P16" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Coastal Lowlands</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C17" t="n">
+        <v>163.1154327310212</v>
+      </c>
+      <c r="D17" t="n">
+        <v>35</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>21</v>
+      </c>
+      <c r="G17" t="n">
+        <v>266</v>
+      </c>
+      <c r="H17" t="n">
+        <v>26</v>
+      </c>
+      <c r="I17" t="n">
+        <v>112.6171813113444</v>
+      </c>
+      <c r="J17" t="n">
+        <v>69</v>
+      </c>
+      <c r="K17" t="n">
+        <v>21</v>
+      </c>
+      <c r="L17" t="n">
+        <v>35</v>
+      </c>
+      <c r="M17" t="n">
+        <v>13</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>20.12134679918617</v>
+      </c>
+      <c r="P17" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Arizona Alluvial</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>236</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16.63928261875554</v>
+      </c>
+      <c r="D18" t="n">
+        <v>324</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>21</v>
+      </c>
+      <c r="G18" t="n">
+        <v>17</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.371634825473856</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>21</v>
+      </c>
+      <c r="L18" t="n">
+        <v>324</v>
+      </c>
+      <c r="M18" t="n">
+        <v>19</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>15.73346248851565</v>
+      </c>
+      <c r="P18" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi Embayment</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2035</v>
+      </c>
+      <c r="C19" t="n">
+        <v>187.1707188743019</v>
+      </c>
+      <c r="D19" t="n">
+        <v>55</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>21</v>
+      </c>
+      <c r="G19" t="n">
+        <v>376</v>
+      </c>
+      <c r="H19" t="n">
+        <v>18</v>
+      </c>
+      <c r="I19" t="n">
+        <v>101.4483009358876</v>
+      </c>
+      <c r="J19" t="n">
+        <v>54</v>
+      </c>
+      <c r="K19" t="n">
+        <v>21</v>
+      </c>
+      <c r="L19" t="n">
+        <v>55</v>
+      </c>
+      <c r="M19" t="n">
+        <v>38</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>44.6766909649384</v>
+      </c>
+      <c r="P19" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
